--- a/src/test/resources/excelauto.xlsx
+++ b/src/test/resources/excelauto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syam\git\selenium\test\selenium\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D82465E-7CAC-4D38-BFAD-D8F24A7C476D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD69E3E8-A00C-430F-B1EA-EF17EDE50360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,64 +28,64 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>laptops</t>
-  </si>
-  <si>
-    <t>mobiles</t>
-  </si>
-  <si>
-    <t>tws earbuds</t>
-  </si>
-  <si>
-    <t>samung watch5</t>
+    <t>login</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>search functions</t>
   </si>
   <si>
     <t>pixel 7</t>
   </si>
   <si>
+    <t>surface pro 9</t>
+  </si>
+  <si>
+    <t>pixel watch</t>
+  </si>
+  <si>
     <t>pixel buds pro</t>
   </si>
   <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>mahesh</t>
-  </si>
-  <si>
-    <t>syam</t>
-  </si>
-  <si>
-    <t>ramys</t>
-  </si>
-  <si>
-    <t>education</t>
-  </si>
-  <si>
-    <t>mba</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>inter</t>
-  </si>
-  <si>
-    <t>parvathi</t>
-  </si>
-  <si>
-    <t>seventh</t>
-  </si>
-  <si>
-    <t>ramankri</t>
-  </si>
-  <si>
-    <t>no</t>
+    <t>admin234</t>
+  </si>
+  <si>
+    <t>nimda</t>
+  </si>
+  <si>
+    <t>adnim</t>
+  </si>
+  <si>
+    <t>ad123</t>
+  </si>
+  <si>
+    <t>amdin</t>
+  </si>
+  <si>
+    <t>minda</t>
+  </si>
+  <si>
+    <t>dim654</t>
+  </si>
+  <si>
+    <t>adnim213</t>
+  </si>
+  <si>
+    <t>aaddnmm</t>
+  </si>
+  <si>
+    <t>adg123</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -138,6 +138,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,39 +430,81 @@
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>4651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>126815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>165184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>5165165</v>
       </c>
     </row>
   </sheetData>
@@ -455,79 +513,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCB427C-7ABD-4FD8-A087-189342E87103}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC70103-089A-488E-B02C-F6D3D6DFCBFA}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>234</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>125</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>115</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>999</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
